--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF35DF-92D7-4827-922A-02173C7D5FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4CAF9-320B-4BC6-945D-31CD0C68175C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7390" yWindow="1060" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -239,32 +239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインボタンを押した際、「社員ID」「パスワード」がDBの登録データと一致しなかった場合
-エラーメッセージが表示される</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインボタンを押した際、「パスワード」が未記入の場合エラーメッセージが表示される</t>
     <rPh sb="8" eb="9">
       <t>オ</t>
@@ -317,6 +291,63 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンを押した際、DBを参照し「社員ID」が存在しなかった場合エラーメッセージが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンを押した時、DBを参照し「パスワード」が存在しなかった場合エラーメッセージが表示される。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/27項目５から分割。</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンカツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1963,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -2046,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -2058,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2073,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="15">
         <v>44127</v>
@@ -2082,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2094,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="15">
         <v>44127</v>
@@ -2103,19 +2134,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15">
         <v>44127</v>
@@ -2124,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -2145,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -2156,11 +2187,15 @@
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
@@ -2466,12 +2501,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -2484,18 +2525,12 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,14 +3028,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -3013,16 +3050,14 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4CAF9-320B-4BC6-945D-31CD0C68175C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7390" yWindow="1060" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="1065" windowWidth="11115" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,79 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインボタンを押した際、DBを参照し「社員ID」「パスワード」が存在した場合
-「月別一覧」画面に遷移する</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>ツキベツイチラン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインボタンを押した際、「パスワード」が未記入の場合エラーメッセージが表示される</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ミキニュウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインボタンを押した際、「社員ID」が未記入の場合エラーメッセージが表示される</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ミキニュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面レイアウトが崩れていない</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -294,59 +220,165 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインボタンを押した際、DBを参照し「社員ID」が存在しなかった場合エラーメッセージが表示される</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
+    <t>10/27項目５から分割。</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンカツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインボタンを押した時、DBを参照し「パスワード」が存在しなかった場合エラーメッセージが表示される。</t>
+    <t>ログインボタンを押した際、「社員ID」が未入力の場合エラーメッセージが表示される</t>
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>10/27項目５から分割。</t>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブンカツ</t>
+    <t>ログインボタンを押した際、「パスワード」が未入力の場合エラーメッセージが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンを押した際、ユーザテーブルを参照し、入力した値に一致する「社員ID」が存在しなかった場合エラーメッセージが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンを押した際、ユーザテーブルを参照し、入力した値に一致する「社員ID」「パスワード」が存在した場合
+「月別一覧」画面に遷移する</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ツキベツイチラン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンを押した際、ユーザテーブルを参照し、入力した値に一致する「パスワード」が存在しなかった場合エラーメッセージが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -354,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +594,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -637,7 +669,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -717,7 +749,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +824,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +899,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1164,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,24 +2023,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2052,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2064,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2063,11 +2095,11 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="15">
@@ -2077,19 +2109,19 @@
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2099,12 +2131,12 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15">
         <v>44127</v>
@@ -2113,19 +2145,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="15">
         <v>44127</v>
@@ -2134,14 +2166,14 @@
         <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2155,19 +2187,19 @@
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15">
         <v>44127</v>
@@ -2176,34 +2208,32 @@
         <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2213,10 +2243,8 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2226,10 +2254,8 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2239,10 +2265,8 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2252,10 +2276,8 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2265,10 +2287,8 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2278,10 +2298,8 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2291,10 +2309,8 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2304,10 +2320,8 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
-        <v>16</v>
-      </c>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2317,10 +2331,8 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2330,10 +2342,8 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -2343,10 +2353,8 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
-        <v>19</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2356,10 +2364,8 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
-        <v>20</v>
-      </c>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2369,10 +2375,8 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
-        <v>21</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2382,10 +2386,8 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2395,10 +2397,8 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2408,10 +2408,8 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2421,10 +2419,8 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7">
-        <v>25</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2434,10 +2430,8 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
-        <v>26</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2447,10 +2441,8 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7">
-        <v>27</v>
-      </c>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2460,10 +2452,8 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7">
-        <v>28</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2473,10 +2463,8 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -2486,10 +2474,8 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7">
-        <v>30</v>
-      </c>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2501,6 +2487,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -2513,24 +2517,6 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2540,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD950AC-5BFA-4523-AC2A-7AACD5994DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2548,16 +2534,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2555,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +2567,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2598,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2633,7 +2619,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2654,7 +2640,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2675,7 +2661,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2688,7 +2674,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2701,7 +2687,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2714,7 +2700,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2727,7 +2713,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2740,7 +2726,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2753,7 +2739,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2766,7 +2752,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2779,7 +2765,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2792,7 +2778,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2805,7 +2791,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2818,7 +2804,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2831,7 +2817,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2844,7 +2830,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2857,7 +2843,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2870,7 +2856,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2883,7 +2869,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2896,7 +2882,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2909,7 +2895,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2922,7 +2908,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2935,7 +2921,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2948,7 +2934,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2961,7 +2947,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2974,7 +2960,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2987,7 +2973,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -3000,7 +2986,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -3013,7 +2999,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -3028,16 +3014,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -3050,14 +3034,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
